--- a/published-data/fonds-solidarite/fds-2022-06-14/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-14/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -492,13 +492,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>766329</v>
+        <v>766330</v>
       </c>
       <c r="D2" t="n">
         <v>155968</v>
       </c>
       <c r="E2" t="n">
-        <v>1429227365</v>
+        <v>1429232685</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -943,13 +943,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>187854</v>
+        <v>187858</v>
       </c>
       <c r="D13" t="n">
         <v>33264</v>
       </c>
       <c r="E13" t="n">
-        <v>1167340568</v>
+        <v>1168030789</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1066,13 +1066,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>10171</v>
+        <v>10172</v>
       </c>
       <c r="D16" t="n">
         <v>2991</v>
       </c>
       <c r="E16" t="n">
-        <v>28005415</v>
+        <v>28006957</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1517,13 +1517,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>90065</v>
+        <v>90066</v>
       </c>
       <c r="D27" t="n">
         <v>17556</v>
       </c>
       <c r="E27" t="n">
-        <v>442898371</v>
+        <v>442910133</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -3239,13 +3239,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>17891</v>
+        <v>17892</v>
       </c>
       <c r="D69" t="n">
         <v>2908</v>
       </c>
       <c r="E69" t="n">
-        <v>103836984</v>
+        <v>103956993</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -3608,13 +3608,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>178444</v>
+        <v>178445</v>
       </c>
       <c r="D78" t="n">
         <v>34685</v>
       </c>
       <c r="E78" t="n">
-        <v>892618766</v>
+        <v>892645000</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -4141,13 +4141,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>18875</v>
+        <v>18876</v>
       </c>
       <c r="D91" t="n">
         <v>3383</v>
       </c>
       <c r="E91" t="n">
-        <v>75303711</v>
+        <v>75305211</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -5371,13 +5371,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1306343</v>
+        <v>1306355</v>
       </c>
       <c r="D121" t="n">
         <v>220386</v>
       </c>
       <c r="E121" t="n">
-        <v>2275319908</v>
+        <v>2275357834</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5699,13 +5699,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>633707</v>
+        <v>633721</v>
       </c>
       <c r="D129" t="n">
         <v>104970</v>
       </c>
       <c r="E129" t="n">
-        <v>3433364583</v>
+        <v>3433665537</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -5822,13 +5822,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>585961</v>
+        <v>585963</v>
       </c>
       <c r="D132" t="n">
         <v>90786</v>
       </c>
       <c r="E132" t="n">
-        <v>3471005530</v>
+        <v>3471020874</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -6724,13 +6724,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>18462</v>
+        <v>18465</v>
       </c>
       <c r="D154" t="n">
         <v>3296</v>
       </c>
       <c r="E154" t="n">
-        <v>73574082</v>
+        <v>74174082</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -10127,13 +10127,13 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>283322</v>
+        <v>283323</v>
       </c>
       <c r="D237" t="n">
         <v>49797</v>
       </c>
       <c r="E237" t="n">
-        <v>1438427690</v>
+        <v>1438433147</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
